--- a/file/New_table.xlsx
+++ b/file/New_table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\Desktop\Projects\Car Accidents Germany 2011- 2024\Traffic-Accidents-Germany\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FEECAE-667C-4162-84CE-2F267E05CCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85820FC-7D6D-4909-936D-F4B91E1A1E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEB13ABA-387A-4809-B4A3-760A01F0C084}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -568,7 +569,7 @@
   <dimension ref="A1:H673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +660,7 @@
         <v>31161</v>
       </c>
       <c r="H3" s="9">
-        <f t="shared" ref="H3:H49" si="0">SUM(D3:G3)</f>
+        <f>SUM(D3:G3)</f>
         <v>38474</v>
       </c>
     </row>
@@ -686,7 +687,7 @@
         <v>8985</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:G4)</f>
         <v>11374</v>
       </c>
     </row>
@@ -713,7 +714,7 @@
         <v>154891</v>
       </c>
       <c r="H5" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:G5)</f>
         <v>180051</v>
       </c>
     </row>
@@ -740,7 +741,7 @@
         <v>105064</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D6:G6)</f>
         <v>120509</v>
       </c>
     </row>
@@ -767,7 +768,7 @@
         <v>26721</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D7:G7)</f>
         <v>33018</v>
       </c>
     </row>
@@ -794,7 +795,7 @@
         <v>7995</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D8:G8)</f>
         <v>10123</v>
       </c>
     </row>
@@ -821,7 +822,7 @@
         <v>139780</v>
       </c>
       <c r="H9" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D9:G9)</f>
         <v>163650</v>
       </c>
     </row>
@@ -848,7 +849,7 @@
         <v>120772</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:G10)</f>
         <v>141045</v>
       </c>
     </row>
@@ -875,7 +876,7 @@
         <v>26923</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D11:G11)</f>
         <v>33864</v>
       </c>
     </row>
@@ -902,7 +903,7 @@
         <v>9046</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D12:G12)</f>
         <v>11056</v>
       </c>
     </row>
@@ -929,7 +930,7 @@
         <v>156741</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D13:G13)</f>
         <v>185965</v>
       </c>
     </row>
@@ -956,7 +957,7 @@
         <v>27104</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D14:G14)</f>
         <v>54208</v>
       </c>
     </row>
@@ -983,7 +984,7 @@
         <v>1110</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D15:G15)</f>
         <v>9043</v>
       </c>
     </row>
@@ -1010,7 +1011,7 @@
         <v>30040</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D16:G16)</f>
         <v>151735</v>
       </c>
     </row>
@@ -1037,7 +1038,7 @@
         <v>12065</v>
       </c>
       <c r="H17" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:G17)</f>
         <v>354677</v>
       </c>
     </row>
@@ -1064,7 +1065,7 @@
         <v>31735</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:G18)</f>
         <v>63470</v>
       </c>
     </row>
@@ -1091,7 +1092,7 @@
         <v>1154</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:G19)</f>
         <v>9662</v>
       </c>
     </row>
@@ -1118,7 +1119,7 @@
         <v>33007</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D20:G20)</f>
         <v>163182</v>
       </c>
     </row>
@@ -1145,7 +1146,7 @@
         <v>13147</v>
       </c>
       <c r="H21" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D21:G21)</f>
         <v>384331</v>
       </c>
     </row>
@@ -1172,7 +1173,7 @@
         <v>28799</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:G22)</f>
         <v>57598</v>
       </c>
     </row>
@@ -1199,7 +1200,7 @@
         <v>1242</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:G23)</f>
         <v>10304</v>
       </c>
     </row>
@@ -1226,7 +1227,7 @@
         <v>27642</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D24:G24)</f>
         <v>148220</v>
       </c>
     </row>
@@ -1253,7 +1254,7 @@
         <v>13176</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D25:G25)</f>
         <v>350872</v>
       </c>
     </row>
@@ -1280,7 +1281,7 @@
         <v>27740</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D26:G26)</f>
         <v>55480</v>
       </c>
     </row>
@@ -1307,7 +1308,7 @@
         <v>1245</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D27:G27)</f>
         <v>10735</v>
       </c>
     </row>
@@ -1334,7 +1335,7 @@
         <v>29794</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D28:G28)</f>
         <v>151905</v>
       </c>
     </row>
@@ -1361,7 +1362,7 @@
         <v>13751</v>
       </c>
       <c r="H29" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D29:G29)</f>
         <v>358430</v>
       </c>
     </row>
@@ -1388,7 +1389,7 @@
         <v>28583</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D30:G30)</f>
         <v>57166</v>
       </c>
     </row>
@@ -1415,7 +1416,7 @@
         <v>1252</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D31:G31)</f>
         <v>10179</v>
       </c>
     </row>
@@ -1442,7 +1443,7 @@
         <v>27814</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D32:G32)</f>
         <v>149112</v>
       </c>
     </row>
@@ -1469,7 +1470,7 @@
         <v>13424</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D33:G33)</f>
         <v>352672</v>
       </c>
     </row>
@@ -1496,7 +1497,7 @@
         <v>30494</v>
       </c>
       <c r="H34" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D34:G34)</f>
         <v>60988</v>
       </c>
     </row>
@@ -1523,7 +1524,7 @@
         <v>1140</v>
       </c>
       <c r="H35" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D35:G35)</f>
         <v>10284</v>
       </c>
     </row>
@@ -1550,7 +1551,7 @@
         <v>28074</v>
       </c>
       <c r="H36" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D36:G36)</f>
         <v>156447</v>
       </c>
     </row>
@@ -1577,7 +1578,7 @@
         <v>13287</v>
       </c>
       <c r="H37" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D37:G37)</f>
         <v>369533</v>
       </c>
     </row>
@@ -1604,7 +1605,7 @@
         <v>28341</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D38:G38)</f>
         <v>56682</v>
       </c>
     </row>
@@ -1631,7 +1632,7 @@
         <v>1261</v>
       </c>
       <c r="H39" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D39:G39)</f>
         <v>11794</v>
       </c>
     </row>
@@ -1658,7 +1659,7 @@
         <v>34717</v>
       </c>
       <c r="H40" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D40:G40)</f>
         <v>169849</v>
       </c>
     </row>
@@ -1685,7 +1686,7 @@
         <v>14378</v>
       </c>
       <c r="H41" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D41:G41)</f>
         <v>397029</v>
       </c>
     </row>
@@ -1712,7 +1713,7 @@
         <v>23589</v>
       </c>
       <c r="H42" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D42:G42)</f>
         <v>47178</v>
       </c>
     </row>
@@ -1739,7 +1740,7 @@
         <v>1106</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D43:G43)</f>
         <v>10836</v>
       </c>
     </row>
@@ -1766,7 +1767,7 @@
         <v>34881</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D44:G44)</f>
         <v>163298</v>
       </c>
     </row>
@@ -1793,7 +1794,7 @@
         <v>11681</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(D45:G45)</f>
         <v>374900</v>
       </c>
     </row>
@@ -1820,7 +1821,7 @@
         <v>24393</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D46:G46)</f>
         <v>48786</v>
       </c>
     </row>
@@ -1847,7 +1848,7 @@
         <v>1258</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D47:G47)</f>
         <v>15164</v>
       </c>
     </row>
@@ -1874,7 +1875,7 @@
         <v>35278</v>
       </c>
       <c r="H48" s="9">
-        <f t="shared" si="0"/>
+        <f>SUM(D48:G48)</f>
         <v>170811</v>
       </c>
     </row>
@@ -1901,7 +1902,7 @@
         <v>13859</v>
       </c>
       <c r="H49" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(D49:G49)</f>
         <v>395378</v>
       </c>
     </row>
@@ -18074,4 +18075,18 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD6DBF-AB9C-42C7-A8A8-8E1B87C3C6E9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A48" sqref="A1:XFD48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/file/New_table.xlsx
+++ b/file/New_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\Desktop\Projects\Car Accidents Germany 2011- 2024\Traffic-Accidents-Germany\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85820FC-7D6D-4909-936D-F4B91E1A1E12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75886D70-E0CA-494A-94DF-963C8402FEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BEB13ABA-387A-4809-B4A3-760A01F0C084}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:H673"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18081,8 +18081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD6DBF-AB9C-42C7-A8A8-8E1B87C3C6E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A48" sqref="A1:XFD48"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
